--- a/05_Versuch ADS/data/messdaten.xlsx
+++ b/05_Versuch ADS/data/messdaten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\PC2_Protokolle\05_Versuch ADS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4770C98B-9CE4-4EAB-848D-C64C9DF2E033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23249746-A39F-4484-B378-BAA23A41E346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{968DEC4D-1594-44BB-BDB2-A71C7D451D1D}"/>
+    <workbookView xWindow="10305" yWindow="2850" windowWidth="15375" windowHeight="7875" xr2:uid="{968DEC4D-1594-44BB-BDB2-A71C7D451D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Messdaten" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Kalibrierung</t>
   </si>
@@ -119,9 +119,6 @@
     <t>damit &lt; 1,5</t>
   </si>
   <si>
-    <t>g/L</t>
-  </si>
-  <si>
     <t>Beladung b</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
   </si>
   <si>
     <t>g</t>
-  </si>
-  <si>
-    <t>ads Iodmasse von 20 ml</t>
   </si>
   <si>
     <t>ln b</t>
@@ -165,9 +159,6 @@
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
   <si>
     <t>1/b</t>
@@ -200,10 +191,25 @@
     <t>innerhalb des Kalibirier bzw. Extinktionsbereiches</t>
   </si>
   <si>
-    <t>ursprüngliche Iodmasse in g</t>
+    <t>Summe R^2</t>
   </si>
   <si>
-    <t>Summe R^2</t>
+    <t>ursprüngliche Iodmasse in mg</t>
+  </si>
+  <si>
+    <t>mg/L ohne Verdünnung</t>
+  </si>
+  <si>
+    <t>ads Iodmasse von 20 ml in Aktivkohle</t>
+  </si>
+  <si>
+    <t>Bestimmtheitsmaß</t>
+  </si>
+  <si>
+    <t>b fit</t>
+  </si>
+  <si>
+    <t>1/b fit</t>
   </si>
 </sst>
 </file>
@@ -215,7 +221,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +251,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -255,14 +281,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -275,63 +299,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE20000"/>
+      <color rgb="FF11E549"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -897,35 +920,77 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messdaten!$K$13:$K$15</c:f>
+              <c:f>Messdaten!$K$6:$K$15</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1310264476290339E-2</c:v>
+                  <c:v>5449.6096935803334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9747174647559118E-3</c:v>
+                  <c:v>2393.1958522661075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7255039030641961E-3</c:v>
+                  <c:v>599.60386811138289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193.20750320400791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.304322497961067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.484679016660827</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.540953046720251</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.310264476290339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.974717464755912</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7255039030641961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messdaten!$M$13:$M$15</c:f>
+              <c:f>Messdaten!$N$6:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24862948937208987</c:v>
+                  <c:v>0.8501429811153044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2208769471743437</c:v>
+                  <c:v>0.76346706957734656</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.61526957043483443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48938532345905444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39674945237389458</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33160802160828862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28483451667270593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24862948937208984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22087694717434367</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.19962804413617583</c:v>
                 </c:pt>
               </c:numCache>
@@ -958,36 +1023,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messdaten!$R$13:$R$15</c:f>
+              <c:f>Messdaten!$R$6:$R$15</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1310264476290336E-2</c:v>
+                  <c:v>5449.6096935803371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.97471746475591E-3</c:v>
+                  <c:v>2393.1958522661071</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7255039030641966E-3</c:v>
+                  <c:v>599.60386811138278</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193.20750320400788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.304322497961067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.48467901666082</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.540953046720251</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.310264476290339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9747174647559111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7255039030641957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messdaten!$S$13:$S$15</c:f>
+              <c:f>Messdaten!$S$6:$S$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24651600210894989</c:v>
+                  <c:v>0.8306407147096192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22424151291304328</c:v>
+                  <c:v>0.70696833224328526</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1983186010107425</c:v>
+                  <c:v>0.53906346318404064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43180416568539048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35995221628498508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31792220986971792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27564359695637575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24764308981869698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22526676016294675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19922532696727765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,36 +1126,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messdaten!$X$13:$X$15</c:f>
+              <c:f>Messdaten!$X$6:$X$15</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1310264476290339E-2</c:v>
+                  <c:v>5449.6096935803334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9747174647559118E-3</c:v>
+                  <c:v>2393.1958522661075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7255039030641961E-3</c:v>
+                  <c:v>599.60386811138289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193.20750320400793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.304322497961067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.484679016660827</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.540953046720251</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.310264476290339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.974717464755912</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7255039030641961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messdaten!$Y$13:$Y$15</c:f>
+              <c:f>Messdaten!$Y$6:$Y$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24452726405807002</c:v>
+                  <c:v>0.71906045352974834</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22768795345974618</c:v>
+                  <c:v>0.71280573580285933</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19684576480682542</c:v>
+                  <c:v>0.68120253743981862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60581797475682631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48459679676595008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37490272420298054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24716373828241683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16708184993580827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11303340420586908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5111521397793637E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,7 +1296,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1477,35 +1626,77 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Messdaten!$Q$13:$Q$15</c:f>
+              <c:f>Messdaten!$Q$6:$Q$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-4.4820446048401301</c:v>
+                  <c:v>8.6032992692359329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.9654634589401629</c:v>
+                  <c:v>7.780384928381376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.5925531603091976</c:v>
+                  <c:v>6.3962692173607074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2637647574839699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3347295880352084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7009236066556364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9725124195664785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4257106741420071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9422918200419743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3152021186729392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messdaten!$P$13:$P$15</c:f>
+              <c:f>Messdaten!$P$6:$P$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-1.3917914851702591</c:v>
+                  <c:v>-0.16235073056717944</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.26988528612807705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.48569478130205856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.71460511726865406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.92445029985661009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.103801665397516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2558469106057264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3917914851702593</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-1.5101495326512258</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>-1.6112994232899631</c:v>
                 </c:pt>
               </c:numCache>
@@ -1605,7 +1796,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1722,7 +1913,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1876,35 +2067,77 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Messdaten!$V$13:$V$15</c:f>
+              <c:f>Messdaten!$V$6:$V$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>88.415262268737919</c:v>
+                  <c:v>1.8349937999743445E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>143.37498329546975</c:v>
+                  <c:v>4.1785130082567379E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>268.42006504878663</c:v>
+                  <c:v>1.6677677599875643E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1757824277874932E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3105417455567096E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4700702198687703E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1174576675411428E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8415262268737915E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14337498329546974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26842006504878663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messdaten!$U$13:$U$15</c:f>
+              <c:f>Messdaten!$U$6:$U$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.0220490438422463</c:v>
+                  <c:v>1.1762727237812372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5274077389827152</c:v>
+                  <c:v>1.3098141882577823</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.6253038473741874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0433796275945477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5204823699607917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.015608594599223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.510810458232025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0220490438422472</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5274077389827161</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>5.0093162227139398</c:v>
                 </c:pt>
               </c:numCache>
@@ -1949,36 +2182,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Messdaten!$V$13:$V$15</c:f>
+              <c:f>Messdaten!$V$6:$V$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>88.415262268737919</c:v>
+                  <c:v>1.8349937999743445E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>143.37498329546975</c:v>
+                  <c:v>4.1785130082567379E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>268.42006504878663</c:v>
+                  <c:v>1.6677677599875643E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1757824277874932E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3105417455567096E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4700702198687703E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1174576675411428E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8415262268737915E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14337498329546974</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26842006504878663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messdaten!$W$13:$W$15</c:f>
+              <c:f>Messdaten!$W$6:$W$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.0895235296237615</c:v>
+                  <c:v>1.3907036537625816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3919758810463101</c:v>
+                  <c:v>1.4029067805882107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0801194578981672</c:v>
+                  <c:v>1.4679921829979174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6506608282816257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0635712135814606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6673585851528196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0459009357487927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9850905432528627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8469422559254092</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.358264997228062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,7 +2352,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2194,7 +2469,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4510,7 +4785,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AB83213F-5B08-4EF0-8D49-027DD56822B9}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="67" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4532,7 +4807,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E01F7771-09AA-4898-BCA5-A881A1107C61}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="67" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4543,7 +4818,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{94F7C9FB-E893-420F-B9CB-E61C8B6B4C5C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="67" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4587,7 +4862,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6002055"/>
+    <xdr:ext cx="9298781" cy="6012656"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -4982,8 +5257,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B3:AF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6:V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4993,30 +5268,36 @@
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:32" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="U3" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -5024,66 +5305,66 @@
       <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="str">
+        <f>K4</f>
+        <v>GG-Konz C_GG</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="str">
-        <f>J4</f>
-        <v>GG-Konz C_GG</v>
-      </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" t="s">
         <v>31</v>
       </c>
-      <c r="S4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" t="s">
-        <v>34</v>
-      </c>
       <c r="W4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="X4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Z4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
@@ -5093,29 +5374,31 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="I5" s="14"/>
       <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
         <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
       </c>
       <c r="P5" t="s">
         <v>13</v>
@@ -5126,871 +5409,861 @@
       <c r="AF5" s="8"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="11">
         <v>0.377</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>0.1</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>0.10705000000000001</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>1.2869999999999999</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="20">
+        <f>K6/500</f>
+        <v>10.899219387160667</v>
+      </c>
+      <c r="K6" s="18">
         <f>(I6-$C$15)/$C$16*500</f>
         <v>5449.6096935803334</v>
       </c>
-      <c r="K6" s="20">
-        <f>J6/1000</f>
-        <v>5.4496096935803333</v>
-      </c>
-      <c r="L6" s="20">
+      <c r="L6" s="21">
         <f>$L$18-K6*20/1000</f>
-        <v>9.1007806128393334E-2</v>
+        <v>91.007806128393341</v>
       </c>
       <c r="M6" s="21">
-        <f>L6/G6</f>
-        <v>0.85014298111530429</v>
+        <f>$L$18-L6</f>
+        <v>108.99219387160666</v>
       </c>
       <c r="N6" s="20">
-        <f>$L$18-L6</f>
-        <v>0.10899219387160668</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4">
-        <f t="shared" ref="P6:P15" si="0">LN(M6)</f>
-        <v>-0.16235073056717958</v>
-      </c>
-      <c r="Q6" s="4">
-        <f t="shared" ref="Q6:Q15" si="1">LN(K6)</f>
-        <v>1.6955439902537952</v>
+        <f>L6/(G6*1000)</f>
+        <v>0.8501429811153044</v>
+      </c>
+      <c r="P6" s="21">
+        <f>LN(N6)</f>
+        <v>-0.16235073056717944</v>
+      </c>
+      <c r="Q6" s="21">
+        <f>LN(K6)</f>
+        <v>8.6032992692359329</v>
       </c>
       <c r="R6" s="20">
         <f>EXP(Q6)</f>
-        <v>5.4496096935803333</v>
-      </c>
-      <c r="S6" s="4">
+        <v>5449.6096935803371</v>
+      </c>
+      <c r="S6" s="20">
         <f>$Q$20*R6^$Q$19</f>
-        <v>0.82686025412236897</v>
-      </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4">
-        <f>1/M6</f>
-        <v>1.1762727237812374</v>
-      </c>
-      <c r="V6" s="4">
+        <v>0.8306407147096192</v>
+      </c>
+      <c r="T6" s="20"/>
+      <c r="U6" s="21">
+        <f>1/N6</f>
+        <v>1.1762727237812372</v>
+      </c>
+      <c r="V6" s="21">
         <f>1/K6</f>
-        <v>0.18349937999743446</v>
-      </c>
-      <c r="W6" s="4">
+        <v>1.8349937999743445E-4</v>
+      </c>
+      <c r="W6" s="21">
         <f>$V$19*V6+$V$18</f>
-        <v>3.6039696793253491</v>
+        <v>1.3907036537625816</v>
       </c>
       <c r="X6" s="20">
         <f>1/V6</f>
-        <v>5.4496096935803333</v>
-      </c>
-      <c r="Y6" s="21">
+        <v>5449.6096935803334</v>
+      </c>
+      <c r="Y6" s="20">
         <f>1/W6</f>
-        <v>0.2774718127448832</v>
-      </c>
-      <c r="Z6" s="21">
-        <f>(Y6-M6)^2</f>
-        <v>0.32795226708274317</v>
+        <v>0.71906045352974834</v>
+      </c>
+      <c r="Z6" s="20">
+        <f>(Y6-N6)^2</f>
+        <v>1.7182629038218062E-2</v>
       </c>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="11">
         <v>0.57399999999999995</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <f>E6+1</f>
         <v>2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <f>F6+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>0.19927</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>1.3959999999999999</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="20">
+        <f>K7/200</f>
+        <v>11.965979261330538</v>
+      </c>
+      <c r="K7" s="18">
         <f>(I7-$C$15)/$C$16*200</f>
         <v>2393.1958522661075</v>
       </c>
-      <c r="K7" s="20">
-        <f>J7/1000</f>
-        <v>2.3931958522661074</v>
-      </c>
-      <c r="L7" s="20">
+      <c r="L7" s="21">
         <f>$L$18-K7*20/1000</f>
-        <v>0.15213608295467787</v>
+        <v>152.13608295467785</v>
       </c>
       <c r="M7" s="21">
-        <f t="shared" ref="M7:M15" si="2">L7/G7</f>
-        <v>0.76346706957734667</v>
+        <f>$L$18-L7</f>
+        <v>47.863917045322154</v>
       </c>
       <c r="N7" s="20">
-        <f>$L$18-L7</f>
-        <v>4.7863917045322141E-2</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.26988528612807694</v>
-      </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.87262964939923904</v>
+        <f>L7/(G7*1000)</f>
+        <v>0.76346706957734656</v>
+      </c>
+      <c r="P7" s="21">
+        <f>LN(N7)</f>
+        <v>-0.26988528612807705</v>
+      </c>
+      <c r="Q7" s="21">
+        <f>LN(K7)</f>
+        <v>7.780384928381376</v>
       </c>
       <c r="R7" s="20">
-        <f t="shared" ref="R7:R15" si="3">EXP(Q7)</f>
-        <v>2.3931958522661074</v>
-      </c>
-      <c r="S7" s="4">
-        <f>$Q$20*R7^$Q$19</f>
-        <v>0.70375073663407628</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4">
-        <f t="shared" ref="U7:U15" si="4">1/M7</f>
-        <v>1.3098141882577821</v>
-      </c>
-      <c r="V7" s="4">
-        <f t="shared" ref="V7:V15" si="5">1/K7</f>
-        <v>0.41785130082567379</v>
-      </c>
-      <c r="W7" s="4">
-        <f>$V$19*V7+$V$18</f>
-        <v>3.6052593563504636</v>
+        <f t="shared" ref="R7:R15" si="0">EXP(Q7)</f>
+        <v>2393.1958522661071</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" ref="S6:S15" si="1">$Q$20*R7^$Q$19</f>
+        <v>0.70696833224328526</v>
+      </c>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21">
+        <f>1/N7</f>
+        <v>1.3098141882577823</v>
+      </c>
+      <c r="V7" s="21">
+        <f>1/K7</f>
+        <v>4.1785130082567379E-4</v>
+      </c>
+      <c r="W7" s="21">
+        <f t="shared" ref="W6:W15" si="2">$V$19*V7+$V$18</f>
+        <v>1.4029067805882107</v>
       </c>
       <c r="X7" s="20">
-        <f t="shared" ref="X7:X15" si="6">1/V7</f>
-        <v>2.3931958522661074</v>
-      </c>
-      <c r="Y7" s="21">
-        <f t="shared" ref="Y7:Y15" si="7">1/W7</f>
-        <v>0.27737255524725446</v>
-      </c>
-      <c r="Z7" s="21">
-        <f t="shared" ref="Z7:Z15" si="8">(Y7-M7)^2</f>
-        <v>0.23628787686180822</v>
+        <f t="shared" ref="X7:X15" si="3">1/V7</f>
+        <v>2393.1958522661075</v>
+      </c>
+      <c r="Y7" s="20">
+        <f t="shared" ref="Y7:Y15" si="4">1/W7</f>
+        <v>0.71280573580285933</v>
+      </c>
+      <c r="Z7" s="20">
+        <f>(Y7-N7)^2</f>
+        <v>2.5665707398100004E-3</v>
       </c>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="10">
         <v>6</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="11">
         <v>0.79700000000000004</v>
       </c>
-      <c r="E8" s="16">
-        <f t="shared" ref="E8:E15" si="9">E7+1</f>
+      <c r="E8" s="15">
+        <f t="shared" ref="E8:E15" si="5">E7+1</f>
         <v>3</v>
       </c>
-      <c r="F8" s="16">
-        <f t="shared" ref="F8:F15" si="10">F7+0.1</f>
+      <c r="F8" s="15">
+        <f t="shared" ref="F8:F15" si="6">F7+0.1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>0.30557000000000001</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>0.78600000000000003</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="20">
+        <f>K8/100</f>
+        <v>5.9960386811138289</v>
+      </c>
+      <c r="K8" s="18">
         <f>(I8-$C$15)/$C$16*100</f>
         <v>599.60386811138289</v>
       </c>
-      <c r="K8" s="20">
-        <f t="shared" ref="K8:K15" si="11">J8/1000</f>
-        <v>0.59960386811138289</v>
-      </c>
-      <c r="L8" s="20">
+      <c r="L8" s="21">
         <f>$L$18-K8*20/1000</f>
-        <v>0.18800792263777236</v>
+        <v>188.00792263777234</v>
       </c>
       <c r="M8" s="21">
+        <f>$L$18-L8</f>
+        <v>11.992077362227661</v>
+      </c>
+      <c r="N8" s="20">
+        <f>L8/(G8*1000)</f>
+        <v>0.61526957043483443</v>
+      </c>
+      <c r="P8" s="21">
+        <f>LN(N8)</f>
+        <v>-0.48569478130205856</v>
+      </c>
+      <c r="Q8" s="21">
+        <f>LN(K8)</f>
+        <v>6.3962692173607074</v>
+      </c>
+      <c r="R8" s="20">
+        <f t="shared" si="0"/>
+        <v>599.60386811138278</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.53906346318404064</v>
+      </c>
+      <c r="T8" s="20"/>
+      <c r="U8" s="21">
+        <f>1/N8</f>
+        <v>1.6253038473741874</v>
+      </c>
+      <c r="V8" s="21">
+        <f>1/K8</f>
+        <v>1.6677677599875643E-3</v>
+      </c>
+      <c r="W8" s="21">
         <f t="shared" si="2"/>
-        <v>0.61526957043483443</v>
-      </c>
-      <c r="N8" s="20">
-        <f>$L$18-L8</f>
-        <v>1.1992077362227654E-2</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.48569478130205856</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="1"/>
-        <v>-0.51148606162142951</v>
-      </c>
-      <c r="R8" s="20">
+        <v>1.4679921829979174</v>
+      </c>
+      <c r="X8" s="20">
         <f t="shared" si="3"/>
-        <v>0.59960386811138289</v>
-      </c>
-      <c r="S8" s="4">
-        <f>$Q$20*R8^$Q$19</f>
-        <v>0.53661004603206974</v>
-      </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4">
+        <v>599.60386811138289</v>
+      </c>
+      <c r="Y8" s="20">
         <f t="shared" si="4"/>
-        <v>1.6253038473741874</v>
-      </c>
-      <c r="V8" s="4">
-        <f t="shared" si="5"/>
-        <v>1.6677677599875644</v>
-      </c>
-      <c r="W8" s="4">
-        <f>$V$19*V8+$V$18</f>
-        <v>3.6121378514572964</v>
-      </c>
-      <c r="X8" s="20">
-        <f t="shared" si="6"/>
-        <v>0.59960386811138289</v>
-      </c>
-      <c r="Y8" s="21">
-        <f t="shared" si="7"/>
-        <v>0.27684436229269482</v>
-      </c>
-      <c r="Z8" s="21">
-        <f t="shared" si="8"/>
-        <v>0.11453162150605052</v>
+        <v>0.68120253743981862</v>
+      </c>
+      <c r="Z8" s="20">
+        <f>(Y8-N8)^2</f>
+        <v>4.3471561380803341E-3</v>
       </c>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="10">
         <v>8</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="11">
         <v>0.98950000000000005</v>
       </c>
-      <c r="E9" s="16">
-        <f t="shared" si="9"/>
+      <c r="E9" s="15">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="F9" s="16">
-        <f t="shared" si="10"/>
+      <c r="F9" s="15">
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>0.40078000000000003</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>0.96299999999999997</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="20">
+        <f>K9/25</f>
+        <v>7.7283001281603161</v>
+      </c>
+      <c r="K9" s="18">
         <f>(I9-$C$15)/$C$16*25</f>
         <v>193.20750320400791</v>
       </c>
-      <c r="K9" s="20">
-        <f t="shared" si="11"/>
-        <v>0.1932075032040079</v>
-      </c>
-      <c r="L9" s="20">
+      <c r="L9" s="21">
         <f>$L$18-K9*20/1000</f>
-        <v>0.19613584993591984</v>
+        <v>196.13584993591985</v>
       </c>
       <c r="M9" s="21">
+        <f>$L$18-L9</f>
+        <v>3.8641500640801496</v>
+      </c>
+      <c r="N9" s="20">
+        <f>L9/(G9*1000)</f>
+        <v>0.48938532345905444</v>
+      </c>
+      <c r="P9" s="21">
+        <f>LN(N9)</f>
+        <v>-0.71460511726865406</v>
+      </c>
+      <c r="Q9" s="21">
+        <f>LN(K9)</f>
+        <v>5.2637647574839699</v>
+      </c>
+      <c r="R9" s="20">
+        <f t="shared" si="0"/>
+        <v>193.20750320400788</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.43180416568539048</v>
+      </c>
+      <c r="T9" s="20"/>
+      <c r="U9" s="21">
+        <f>1/N9</f>
+        <v>2.0433796275945477</v>
+      </c>
+      <c r="V9" s="21">
+        <f>1/K9</f>
+        <v>5.1757824277874932E-3</v>
+      </c>
+      <c r="W9" s="21">
         <f t="shared" si="2"/>
-        <v>0.48938532345905444</v>
-      </c>
-      <c r="N9" s="20">
-        <f>$L$18-L9</f>
-        <v>3.8641500640801685E-3</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.71460511726865406</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.6439905214981669</v>
-      </c>
-      <c r="R9" s="20">
+        <v>1.6506608282816257</v>
+      </c>
+      <c r="X9" s="20">
         <f t="shared" si="3"/>
-        <v>0.1932075032040079</v>
-      </c>
-      <c r="S9" s="4">
-        <f>$Q$20*R9^$Q$19</f>
-        <v>0.42983891331950436</v>
-      </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4">
+        <v>193.20750320400793</v>
+      </c>
+      <c r="Y9" s="20">
         <f t="shared" si="4"/>
-        <v>2.0433796275945477</v>
-      </c>
-      <c r="V9" s="4">
-        <f t="shared" si="5"/>
-        <v>5.1757824277874942</v>
-      </c>
-      <c r="W9" s="4">
-        <f>$V$19*V9+$V$18</f>
-        <v>3.63144303105573</v>
-      </c>
-      <c r="X9" s="20">
-        <f t="shared" si="6"/>
-        <v>0.1932075032040079</v>
-      </c>
-      <c r="Y9" s="21">
-        <f t="shared" si="7"/>
-        <v>0.27537262500006254</v>
-      </c>
-      <c r="Z9" s="21">
-        <f t="shared" si="8"/>
-        <v>4.5801435101699393E-2</v>
+        <v>0.60581797475682631</v>
+      </c>
+      <c r="Z9" s="20">
+        <f>(Y9-N9)^2</f>
+        <v>1.3556562288228536E-2</v>
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="10">
         <v>10</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="11">
         <v>1.2015</v>
       </c>
-      <c r="E10" s="16">
-        <f t="shared" si="9"/>
+      <c r="E10" s="15">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="F10" s="16">
-        <f t="shared" si="10"/>
+      <c r="F10" s="15">
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>0.50024999999999997</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>0.95299999999999996</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="20">
+        <f>K10/10</f>
+        <v>7.6304322497961063</v>
+      </c>
+      <c r="K10" s="18">
         <f>(I10-$C$15)/$C$16*10</f>
         <v>76.304322497961067</v>
       </c>
-      <c r="K10" s="20">
-        <f t="shared" si="11"/>
-        <v>7.6304322497961069E-2</v>
-      </c>
-      <c r="L10" s="20">
+      <c r="L10" s="21">
         <f>$L$18-K10*20/1000</f>
-        <v>0.19847391355004079</v>
+        <v>198.47391355004078</v>
       </c>
       <c r="M10" s="21">
+        <f>$L$18-L10</f>
+        <v>1.526086449959223</v>
+      </c>
+      <c r="N10" s="20">
+        <f>L10/(G10*1000)</f>
+        <v>0.39674945237389458</v>
+      </c>
+      <c r="P10" s="21">
+        <f>LN(N10)</f>
+        <v>-0.92445029985661009</v>
+      </c>
+      <c r="Q10" s="21">
+        <f>LN(K10)</f>
+        <v>4.3347295880352084</v>
+      </c>
+      <c r="R10" s="20">
+        <f t="shared" si="0"/>
+        <v>76.304322497961067</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="1"/>
+        <v>0.35995221628498508</v>
+      </c>
+      <c r="T10" s="20"/>
+      <c r="U10" s="21">
+        <f>1/N10</f>
+        <v>2.5204823699607917</v>
+      </c>
+      <c r="V10" s="21">
+        <f>1/K10</f>
+        <v>1.3105417455567096E-2</v>
+      </c>
+      <c r="W10" s="21">
         <f t="shared" si="2"/>
-        <v>0.39674945237389464</v>
-      </c>
-      <c r="N10" s="20">
-        <f>$L$18-L10</f>
-        <v>1.5260864499592186E-3</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4">
-        <f t="shared" si="0"/>
-        <v>-0.92445029985660987</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="1"/>
-        <v>-2.5730256909469285</v>
-      </c>
-      <c r="R10" s="20">
+        <v>2.0635712135814606</v>
+      </c>
+      <c r="X10" s="20">
         <f t="shared" si="3"/>
-        <v>7.6304322497961083E-2</v>
-      </c>
-      <c r="S10" s="4">
-        <f>$Q$20*R10^$Q$19</f>
-        <v>0.35831398071229859</v>
-      </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4">
+        <v>76.304322497961067</v>
+      </c>
+      <c r="Y10" s="20">
         <f t="shared" si="4"/>
-        <v>2.5204823699607912</v>
-      </c>
-      <c r="V10" s="4">
-        <f t="shared" si="5"/>
-        <v>13.105417455567094</v>
-      </c>
-      <c r="W10" s="4">
-        <f>$V$19*V10+$V$18</f>
-        <v>3.6750811120952611</v>
-      </c>
-      <c r="X10" s="20">
-        <f t="shared" si="6"/>
-        <v>7.6304322497961069E-2</v>
-      </c>
-      <c r="Y10" s="21">
-        <f t="shared" si="7"/>
-        <v>0.27210283786903239</v>
-      </c>
-      <c r="Z10" s="21">
-        <f t="shared" si="8"/>
-        <v>1.5536778507523736E-2</v>
+        <v>0.48459679676595008</v>
+      </c>
+      <c r="Z10" s="20">
+        <f>(Y10-N10)^2</f>
+        <v>7.7171559167364037E-3</v>
       </c>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="10">
         <v>12</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="11">
         <v>1.3925000000000001</v>
       </c>
-      <c r="E11" s="16">
-        <f t="shared" si="9"/>
+      <c r="E11" s="15">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="F11" s="16">
-        <f t="shared" si="10"/>
+      <c r="F11" s="15">
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>0.60067999999999999</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>0.58699999999999997</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="20">
+        <f>K11/10</f>
+        <v>4.0484679016660827</v>
+      </c>
+      <c r="K11" s="18">
         <f>(I11-$C$15)/$C$16*10</f>
         <v>40.484679016660827</v>
       </c>
-      <c r="K11" s="20">
-        <f t="shared" si="11"/>
-        <v>4.0484679016660828E-2</v>
-      </c>
-      <c r="L11" s="20">
+      <c r="L11" s="21">
         <f>$L$18-K11*20/1000</f>
-        <v>0.19919030641966678</v>
+        <v>199.1903064196668</v>
       </c>
       <c r="M11" s="21">
+        <f>$L$18-L11</f>
+        <v>0.80969358033320304</v>
+      </c>
+      <c r="N11" s="20">
+        <f>L11/(G11*1000)</f>
+        <v>0.33160802160828862</v>
+      </c>
+      <c r="P11" s="21">
+        <f>LN(N11)</f>
+        <v>-1.103801665397516</v>
+      </c>
+      <c r="Q11" s="21">
+        <f>LN(K11)</f>
+        <v>3.7009236066556364</v>
+      </c>
+      <c r="R11" s="20">
+        <f t="shared" si="0"/>
+        <v>40.48467901666082</v>
+      </c>
+      <c r="S11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.31792220986971792</v>
+      </c>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21">
+        <f>1/N11</f>
+        <v>3.015608594599223</v>
+      </c>
+      <c r="V11" s="21">
+        <f>1/K11</f>
+        <v>2.4700702198687703E-2</v>
+      </c>
+      <c r="W11" s="21">
         <f t="shared" si="2"/>
-        <v>0.33160802160828856</v>
-      </c>
-      <c r="N11" s="20">
-        <f>$L$18-L11</f>
-        <v>8.0969358033322614E-4</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.1038016653975162</v>
-      </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="1"/>
-        <v>-3.2068316723265005</v>
-      </c>
-      <c r="R11" s="20">
+        <v>2.6673585851528196</v>
+      </c>
+      <c r="X11" s="20">
         <f t="shared" si="3"/>
-        <v>4.0484679016660828E-2</v>
-      </c>
-      <c r="S11" s="4">
-        <f>$Q$20*R11^$Q$19</f>
-        <v>0.3164752637196675</v>
-      </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4">
+        <v>40.484679016660827</v>
+      </c>
+      <c r="Y11" s="20">
         <f t="shared" si="4"/>
-        <v>3.0156085945992235</v>
-      </c>
-      <c r="V11" s="4">
-        <f t="shared" si="5"/>
-        <v>24.700702198687701</v>
-      </c>
-      <c r="W11" s="4">
-        <f>$V$19*V11+$V$18</f>
-        <v>3.7388918642325408</v>
-      </c>
-      <c r="X11" s="20">
-        <f t="shared" si="6"/>
-        <v>4.0484679016660828E-2</v>
-      </c>
-      <c r="Y11" s="21">
-        <f t="shared" si="7"/>
-        <v>0.26745892534799581</v>
-      </c>
-      <c r="Z11" s="21">
-        <f t="shared" si="8"/>
-        <v>4.1151065510123047E-3</v>
+        <v>0.37490272420298054</v>
+      </c>
+      <c r="Z11" s="20">
+        <f>(Y11-N11)^2</f>
+        <v>1.8744312727628238E-3</v>
       </c>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="B12" s="12">
         <v>16</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="13">
         <v>1.8815</v>
       </c>
-      <c r="E12" s="16">
-        <f t="shared" si="9"/>
+      <c r="E12" s="15">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="F12" s="16">
-        <f t="shared" si="10"/>
+      <c r="F12" s="15">
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>0.70079000000000002</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>0.373</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="20">
+        <f>K12/10</f>
+        <v>1.9540953046720251</v>
+      </c>
+      <c r="K12" s="18">
         <f>(I12-$C$15)/$C$16*10</f>
         <v>19.540953046720251</v>
       </c>
-      <c r="K12" s="20">
-        <f t="shared" si="11"/>
-        <v>1.9540953046720252E-2</v>
-      </c>
-      <c r="L12" s="20">
+      <c r="L12" s="21">
         <f>$L$18-K12*20/1000</f>
-        <v>0.1996091809390656</v>
+        <v>199.6091809390656</v>
       </c>
       <c r="M12" s="21">
+        <f>$L$18-L12</f>
+        <v>0.39081906093440466</v>
+      </c>
+      <c r="N12" s="20">
+        <f>L12/(G12*1000)</f>
+        <v>0.28483451667270593</v>
+      </c>
+      <c r="P12" s="21">
+        <f>LN(N12)</f>
+        <v>-1.2558469106057264</v>
+      </c>
+      <c r="Q12" s="21">
+        <f>LN(K12)</f>
+        <v>2.9725124195664785</v>
+      </c>
+      <c r="R12" s="20">
+        <f t="shared" si="0"/>
+        <v>19.540953046720251</v>
+      </c>
+      <c r="S12" s="20">
+        <f t="shared" si="1"/>
+        <v>0.27564359695637575</v>
+      </c>
+      <c r="T12" s="20"/>
+      <c r="U12" s="21">
+        <f>1/N12</f>
+        <v>3.510810458232025</v>
+      </c>
+      <c r="V12" s="21">
+        <f>1/K12</f>
+        <v>5.1174576675411428E-2</v>
+      </c>
+      <c r="W12" s="21">
         <f t="shared" si="2"/>
-        <v>0.28483451667270593</v>
-      </c>
-      <c r="N12" s="20">
-        <f>$L$18-L12</f>
-        <v>3.9081906093441088E-4</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4">
-        <f t="shared" si="0"/>
-        <v>-1.2558469106057264</v>
-      </c>
-      <c r="Q12" s="4">
-        <f t="shared" si="1"/>
-        <v>-3.9352428594156583</v>
-      </c>
-      <c r="R12" s="20">
+        <v>4.0459009357487927</v>
+      </c>
+      <c r="X12" s="20">
         <f t="shared" si="3"/>
-        <v>1.9540953046720256E-2</v>
-      </c>
-      <c r="S12" s="4">
-        <f>$Q$20*R12^$Q$19</f>
-        <v>0.27438907170139104</v>
-      </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4">
+        <v>19.540953046720251</v>
+      </c>
+      <c r="Y12" s="20">
         <f t="shared" si="4"/>
-        <v>3.510810458232025</v>
-      </c>
-      <c r="V12" s="4">
-        <f t="shared" si="5"/>
-        <v>51.174576675411423</v>
-      </c>
-      <c r="W12" s="4">
-        <f>$V$19*V12+$V$18</f>
-        <v>3.8845819339265977</v>
-      </c>
-      <c r="X12" s="20">
-        <f t="shared" si="6"/>
-        <v>1.9540953046720252E-2</v>
-      </c>
-      <c r="Y12" s="21">
-        <f t="shared" si="7"/>
-        <v>0.25742795930402324</v>
-      </c>
-      <c r="Z12" s="21">
-        <f t="shared" si="8"/>
-        <v>7.5111938680289566E-4</v>
+        <v>0.24716373828241683</v>
+      </c>
+      <c r="Z12" s="20">
+        <f>(Y12-N12)^2</f>
+        <v>1.4190875445302719E-3</v>
       </c>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="B13" s="12">
         <v>20</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="13">
         <v>2.5880000000000001</v>
       </c>
-      <c r="E13" s="9">
-        <f t="shared" si="9"/>
+      <c r="E13" s="15">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="F13" s="9">
-        <f t="shared" si="10"/>
+      <c r="F13" s="15">
+        <f t="shared" si="6"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="15">
         <v>0.80349999999999999</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="17">
         <v>1.329</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="20">
+        <f>K13</f>
+        <v>11.310264476290339</v>
+      </c>
+      <c r="K13" s="18">
         <f>(I13-$C$15)/$C$16</f>
         <v>11.310264476290339</v>
       </c>
-      <c r="K13" s="13">
-        <f t="shared" si="11"/>
-        <v>1.1310264476290339E-2</v>
-      </c>
-      <c r="L13" s="13">
-        <f>$L$18-K13*20/1000</f>
-        <v>0.19977379471047421</v>
-      </c>
-      <c r="M13" s="14">
+      <c r="L13" s="21">
+        <f>$L$18-J13*20/1000</f>
+        <v>199.77379471047419</v>
+      </c>
+      <c r="M13" s="21">
+        <f>$L$18-L13</f>
+        <v>0.22620528952580798</v>
+      </c>
+      <c r="N13" s="20">
+        <f>L13/(G13*1000)</f>
+        <v>0.24862948937208984</v>
+      </c>
+      <c r="P13" s="21">
+        <f>LN(N13)</f>
+        <v>-1.3917914851702593</v>
+      </c>
+      <c r="Q13" s="21">
+        <f>LN(K13)</f>
+        <v>2.4257106741420071</v>
+      </c>
+      <c r="R13" s="20">
+        <f>EXP(Q13)</f>
+        <v>11.310264476290339</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="1"/>
+        <v>0.24764308981869698</v>
+      </c>
+      <c r="T13" s="20"/>
+      <c r="U13" s="21">
+        <f>1/N13</f>
+        <v>4.0220490438422472</v>
+      </c>
+      <c r="V13" s="21">
+        <f>1/K13</f>
+        <v>8.8415262268737915E-2</v>
+      </c>
+      <c r="W13" s="21">
         <f t="shared" si="2"/>
-        <v>0.24862948937208987</v>
-      </c>
-      <c r="N13" s="13">
-        <f>$L$18-L13</f>
-        <v>2.2620528952579932E-4</v>
-      </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.3917914851702591</v>
-      </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="1"/>
-        <v>-4.4820446048401301</v>
-      </c>
-      <c r="R13" s="13">
-        <f>EXP(Q13)</f>
-        <v>1.1310264476290336E-2</v>
-      </c>
-      <c r="S13" s="6">
-        <f>$Q$20*R13^$Q$19</f>
-        <v>0.24651600210894989</v>
-      </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6">
-        <f>1/M13</f>
-        <v>4.0220490438422463</v>
-      </c>
-      <c r="V13" s="6">
-        <f>1/K13</f>
-        <v>88.415262268737919</v>
-      </c>
-      <c r="W13" s="6">
-        <f>$V$19*V13+$V$18</f>
-        <v>4.0895235296237615</v>
-      </c>
-      <c r="X13" s="13">
-        <f t="shared" si="6"/>
-        <v>1.1310264476290339E-2</v>
-      </c>
-      <c r="Y13" s="14">
-        <f t="shared" si="7"/>
-        <v>0.24452726405807002</v>
-      </c>
-      <c r="Z13" s="14">
-        <f t="shared" si="8"/>
-        <v>1.682825252698528E-5</v>
+        <v>5.9850905432528627</v>
+      </c>
+      <c r="X13" s="20">
+        <f t="shared" si="3"/>
+        <v>11.310264476290339</v>
+      </c>
+      <c r="Y13" s="20">
+        <f t="shared" si="4"/>
+        <v>0.16708184993580827</v>
+      </c>
+      <c r="Z13" s="20">
+        <f>(Y13-N13)^2</f>
+        <v>6.6500174976297857E-3</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="E14" s="9">
-        <f t="shared" si="9"/>
+      <c r="E14" s="15">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="F14" s="15">
-        <f t="shared" si="10"/>
+      <c r="F14" s="19">
+        <f t="shared" si="6"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="15">
         <v>0.90485000000000004</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="17">
         <v>0.88600000000000001</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="20">
+        <f>K14</f>
+        <v>6.974717464755912</v>
+      </c>
+      <c r="K14" s="18">
         <f>(I14-$C$15)/$C$16</f>
         <v>6.974717464755912</v>
       </c>
-      <c r="K14" s="13">
-        <f t="shared" si="11"/>
-        <v>6.9747174647559118E-3</v>
-      </c>
-      <c r="L14" s="13">
-        <f>$L$18-K14*20/1000</f>
-        <v>0.1998605056507049</v>
-      </c>
-      <c r="M14" s="14">
+      <c r="L14" s="21">
+        <f>$L$18-J14*20/1000</f>
+        <v>199.86050565070488</v>
+      </c>
+      <c r="M14" s="21">
+        <f>$L$18-L14</f>
+        <v>0.13949434929511995</v>
+      </c>
+      <c r="N14" s="20">
+        <f>L14/(G14*1000)</f>
+        <v>0.22087694717434367</v>
+      </c>
+      <c r="P14" s="21">
+        <f>LN(N14)</f>
+        <v>-1.5101495326512258</v>
+      </c>
+      <c r="Q14" s="21">
+        <f>LN(K14)</f>
+        <v>1.9422918200419743</v>
+      </c>
+      <c r="R14" s="20">
+        <f t="shared" si="0"/>
+        <v>6.9747174647559111</v>
+      </c>
+      <c r="S14" s="20">
+        <f t="shared" si="1"/>
+        <v>0.22526676016294675</v>
+      </c>
+      <c r="T14" s="20"/>
+      <c r="U14" s="21">
+        <f>1/N14</f>
+        <v>4.5274077389827161</v>
+      </c>
+      <c r="V14" s="21">
+        <f>1/K14</f>
+        <v>0.14337498329546974</v>
+      </c>
+      <c r="W14" s="21">
         <f t="shared" si="2"/>
-        <v>0.2208769471743437</v>
-      </c>
-      <c r="N14" s="13">
-        <f>$L$18-L14</f>
-        <v>1.3949434929511062E-4</v>
-      </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.5101495326512258</v>
-      </c>
-      <c r="Q14" s="6">
-        <f t="shared" si="1"/>
-        <v>-4.9654634589401629</v>
-      </c>
-      <c r="R14" s="13">
+        <v>8.8469422559254092</v>
+      </c>
+      <c r="X14" s="20">
         <f t="shared" si="3"/>
-        <v>6.97471746475591E-3</v>
-      </c>
-      <c r="S14" s="6">
-        <f>$Q$20*R14^$Q$19</f>
-        <v>0.22424151291304328</v>
-      </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6">
+        <v>6.974717464755912</v>
+      </c>
+      <c r="Y14" s="20">
         <f t="shared" si="4"/>
-        <v>4.5274077389827152</v>
-      </c>
-      <c r="V14" s="6">
-        <f t="shared" si="5"/>
-        <v>143.37498329546975</v>
-      </c>
-      <c r="W14" s="6">
-        <f>$V$19*V14+$V$18</f>
-        <v>4.3919758810463101</v>
-      </c>
-      <c r="X14" s="13">
-        <f t="shared" si="6"/>
-        <v>6.9747174647559118E-3</v>
-      </c>
-      <c r="Y14" s="14">
-        <f t="shared" si="7"/>
-        <v>0.22768795345974618</v>
-      </c>
-      <c r="Z14" s="14">
-        <f t="shared" si="8"/>
-        <v>4.6389806619792192E-5</v>
+        <v>0.11303340420586908</v>
+      </c>
+      <c r="Z14" s="20">
+        <f>(Y14-N14)^2</f>
+        <v>1.1630229759993225E-2</v>
       </c>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <f>INTERCEPT(C6:C11,B6:B11)</f>
         <v>0.17333333333333345</v>
       </c>
-      <c r="E15" s="9">
-        <f t="shared" si="9"/>
+      <c r="E15" s="15">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="F15" s="15">
-        <f t="shared" si="10"/>
+      <c r="F15" s="19">
+        <f t="shared" si="6"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="15">
         <v>1.00149</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="17">
         <v>0.55400000000000005</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="20">
+        <f>K15</f>
+        <v>3.7255039030641961</v>
+      </c>
+      <c r="K15" s="18">
         <f>(I15-$C$15)/$C$16</f>
         <v>3.7255039030641961</v>
       </c>
-      <c r="K15" s="13">
-        <f t="shared" si="11"/>
-        <v>3.7255039030641961E-3</v>
-      </c>
-      <c r="L15" s="13">
-        <f>$L$18-K15*20/1000</f>
-        <v>0.19992548992193873</v>
-      </c>
-      <c r="M15" s="14">
+      <c r="L15" s="21">
+        <f>$L$18-J15*20/1000</f>
+        <v>199.92548992193872</v>
+      </c>
+      <c r="M15" s="21">
+        <f>$L$18-L15</f>
+        <v>7.4510078061280183E-2</v>
+      </c>
+      <c r="N15" s="20">
+        <f>L15/(G15*1000)</f>
+        <v>0.19962804413617583</v>
+      </c>
+      <c r="P15" s="21">
+        <f>LN(N15)</f>
+        <v>-1.6112994232899631</v>
+      </c>
+      <c r="Q15" s="21">
+        <f>LN(K15)</f>
+        <v>1.3152021186729392</v>
+      </c>
+      <c r="R15" s="20">
+        <f t="shared" si="0"/>
+        <v>3.7255039030641957</v>
+      </c>
+      <c r="S15" s="20">
+        <f t="shared" si="1"/>
+        <v>0.19922532696727765</v>
+      </c>
+      <c r="T15" s="20"/>
+      <c r="U15" s="21">
+        <f>1/N15</f>
+        <v>5.0093162227139398</v>
+      </c>
+      <c r="V15" s="21">
+        <f>1/K15</f>
+        <v>0.26842006504878663</v>
+      </c>
+      <c r="W15" s="21">
         <f t="shared" si="2"/>
-        <v>0.19962804413617583</v>
-      </c>
-      <c r="N15" s="13">
-        <f>$L$18-L15</f>
-        <v>7.4510078061279517E-5</v>
-      </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.6112994232899631</v>
-      </c>
-      <c r="Q15" s="6">
-        <f t="shared" si="1"/>
-        <v>-5.5925531603091976</v>
-      </c>
-      <c r="R15" s="13">
+        <v>15.358264997228062</v>
+      </c>
+      <c r="X15" s="20">
         <f t="shared" si="3"/>
-        <v>3.7255039030641966E-3</v>
-      </c>
-      <c r="S15" s="6">
-        <f>$Q$20*R15^$Q$19</f>
-        <v>0.1983186010107425</v>
-      </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6">
+        <v>3.7255039030641961</v>
+      </c>
+      <c r="Y15" s="20">
         <f t="shared" si="4"/>
-        <v>5.0093162227139398</v>
-      </c>
-      <c r="V15" s="6">
-        <f t="shared" si="5"/>
-        <v>268.42006504878663</v>
-      </c>
-      <c r="W15" s="6">
-        <f>$V$19*V15+$V$18</f>
-        <v>5.0801194578981672</v>
-      </c>
-      <c r="X15" s="13">
-        <f t="shared" si="6"/>
-        <v>3.7255039030641961E-3</v>
-      </c>
-      <c r="Y15" s="14">
-        <f t="shared" si="7"/>
-        <v>0.19684576480682542</v>
-      </c>
-      <c r="Z15" s="14">
-        <f t="shared" si="8"/>
-        <v>7.7410782665305493E-6</v>
+        <v>6.5111521397793637E-2</v>
+      </c>
+      <c r="Z15" s="20">
+        <f>(Y15-N15)^2</f>
+        <v>1.8094694889625694E-2</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <f>SLOPE(C6:C11,B6:B11)</f>
@@ -5998,135 +6271,132 @@
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <f>RSQ(C6:C11,B6:B11)</f>
+        <v>0.99963277810099738</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="I17" s="2"/>
-      <c r="K17" s="1"/>
       <c r="L17" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="24"/>
+        <v>41</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="9"/>
       <c r="U17" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="V17" s="8"/>
       <c r="Z17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="I18" s="2"/>
-      <c r="K18" s="1"/>
       <c r="L18">
-        <f>10*20/1000</f>
-        <v>0.2</v>
+        <f>10*20</f>
+        <v>200</v>
       </c>
       <c r="P18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q18">
-        <f>INTERCEPT(P13:P15,Q13:Q15)</f>
-        <v>-0.52228191142588942</v>
+        <f>INTERCEPT(P6:P15,Q6:Q15)</f>
+        <v>-1.8709709784474253</v>
       </c>
       <c r="U18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V18">
-        <v>3.6029598521659678</v>
+        <v>1.3811485103755805</v>
       </c>
       <c r="Z18" s="3">
-        <f>SUM(Z13:Z15)</f>
-        <v>7.0959137413308023E-5</v>
+        <f>SUM(Z6:Z15)</f>
+        <v>8.5038535085615125E-2</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="K19" s="1"/>
       <c r="L19" s="3"/>
       <c r="P19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q19">
         <f>SLOPE(P13:P15,Q13:Q15)</f>
-        <v>0.19590310590721352</v>
+        <v>0.19590310590721324</v>
       </c>
       <c r="U19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="V19">
-        <v>5.5031638766040794E-3</v>
+        <v>52.07180202535185</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="K20" s="1"/>
       <c r="L20" s="3"/>
       <c r="N20" s="1"/>
       <c r="P20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q20">
         <f>EXP(Q18)</f>
-        <v>0.59316545143200439</v>
+        <v>0.1539740836915896</v>
       </c>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
-      <c r="K21" s="1"/>
       <c r="L21" s="3"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
-        <v>41</v>
+      <c r="B22" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="K22" s="1"/>
       <c r="L22" s="3"/>
       <c r="P22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q22">
-        <f>RSQ(R13:R15,S13:S15)</f>
-        <v>0.98416294354323552</v>
+        <f>RSQ(R6:R15,S6:S15)</f>
+        <v>0.79076678445454385</v>
       </c>
       <c r="U22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V22">
-        <f>RSQ(Y13:Y15,X13:X15)</f>
-        <v>0.93857059664294273</v>
+        <f>RSQ(Y6:Y15,X6:X15)</f>
+        <v>0.38457813412707542</v>
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
-        <v>42</v>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="K23" s="1"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="K24" s="1"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="K25" s="1"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
-      <c r="K26" s="1"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
@@ -6136,8 +6406,8 @@
       <c r="D28" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K17:K26">
-    <sortCondition ref="K17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K4:K13">
+    <sortCondition ref="K4"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="B3:C3"/>
